--- a/CASE_E_output_C.xlsx
+++ b/CASE_E_output_C.xlsx
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -801,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -843,16 +843,16 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -877,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -959,13 +959,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
         <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
         <v>2</v>
@@ -1047,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1092,13 +1092,13 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1320,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1362,16 +1362,16 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1383,16 +1383,16 @@
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>3</v>
@@ -1477,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1505,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1608,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1629,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1653,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1699,16 +1699,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1741,16 +1741,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1793,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1811,16 +1811,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1832,16 +1832,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2136,10 +2136,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2151,16 +2151,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2193,13 +2193,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>2</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2227,10 +2227,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2691,16 +2691,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2733,16 +2733,16 @@
         <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2782,16 +2782,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2824,16 +2824,16 @@
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>1</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2873,16 +2873,16 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2936,16 +2936,16 @@
         <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W28" t="n">
         <v>3</v>
@@ -3030,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3052,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3094,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3115,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -3164,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3185,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3194,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
         <v>3</v>
@@ -3206,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3215,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3234,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3276,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3297,19 +3297,19 @@
         <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3325,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3346,10 +3346,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3364,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -3419,16 +3419,16 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3440,16 +3440,16 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3461,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3482,16 +3482,16 @@
         <v>1</v>
       </c>
       <c r="Z33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -3507,19 +3507,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3528,19 +3528,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3549,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3570,19 +3570,19 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22909</v>
+        <v>22702</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -3723,95 +3723,95 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -3822,32 +3822,32 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>-1</v>
@@ -3855,29 +3855,29 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -3888,40 +3888,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -3932,18 +3932,18 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -3954,18 +3954,18 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -3976,40 +3976,40 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
         <v>8</v>
       </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
@@ -4020,164 +4020,164 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
         <v>7</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>14</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>6</v>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>7</v>
       </c>
-      <c r="E21" t="n">
-        <v>6</v>
-      </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>-1</v>
@@ -4185,153 +4185,153 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
         <v>7</v>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
         <v>7</v>
       </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
-      </c>
       <c r="F28" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -4339,51 +4339,51 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
         <v>8</v>
       </c>
-      <c r="B31" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3</v>
-      </c>
       <c r="F31" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -4394,1685 +4394,189 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
         <v>7</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>11</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>11</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>12</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>12</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>7</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>12</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>12</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>13</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>13</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>13</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>13</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>14</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>8</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>14</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>8</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>14</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>4</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>14</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>15</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>15</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>15</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>16</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>16</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>16</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" t="n">
-        <v>5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>16</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>3</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>17</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>12</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>17</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>11</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>17</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" t="n">
-        <v>5</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>17</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>18</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>8</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>18</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>18</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>19</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>8</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6</v>
-      </c>
-      <c r="F70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>19</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>7</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>19</v>
-      </c>
-      <c r="B72" t="n">
-        <v>3</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>4</v>
-      </c>
-      <c r="E72" t="n">
-        <v>5</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>19</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>20</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>7</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>20</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>8</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>20</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>4</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>20</v>
-      </c>
-      <c r="B77" t="n">
-        <v>4</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>3</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>21</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>7</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>21</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>8</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>21</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>21</v>
-      </c>
-      <c r="B81" t="n">
-        <v>4</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>3</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>22</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>5</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>22</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>7</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>22</v>
-      </c>
-      <c r="B84" t="n">
-        <v>3</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>5</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>22</v>
-      </c>
-      <c r="B85" t="n">
-        <v>4</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>23</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>6</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>23</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>23</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>4</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>23</v>
-      </c>
-      <c r="B89" t="n">
-        <v>4</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>3</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>24</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>12</v>
-      </c>
-      <c r="E90" t="n">
-        <v>6</v>
-      </c>
-      <c r="F90" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>24</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>11</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>24</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>4</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>24</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>25</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>8</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>25</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>25</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>4</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>25</v>
-      </c>
-      <c r="B97" t="n">
-        <v>4</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>3</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>26</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6</v>
-      </c>
-      <c r="F98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>26</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>7</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>26</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>26</v>
-      </c>
-      <c r="B101" t="n">
-        <v>4</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>27</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>6</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>27</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>27</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>27</v>
-      </c>
-      <c r="B105" t="n">
-        <v>4</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>28</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>6</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>28</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>7</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>28</v>
-      </c>
-      <c r="B108" t="n">
-        <v>3</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>4</v>
-      </c>
-      <c r="E108" t="n">
-        <v>5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>28</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_C.xlsx
+++ b/CASE_E_output_C.xlsx
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>3</v>
@@ -1019,16 +1019,16 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -1089,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
         <v>4</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
         <v>3</v>
       </c>
       <c r="Z7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
         <v>4</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1198,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -1362,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>4</v>
@@ -1477,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1632,16 +1632,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1702,16 +1702,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>4</v>
@@ -1732,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1744,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1814,16 +1814,16 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1835,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X21" t="n">
         <v>1</v>
@@ -2396,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2415,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2621,16 +2621,16 @@
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
@@ -2663,16 +2663,16 @@
         <v>3</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3097,13 +3097,13 @@
         <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>4</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3115,16 +3115,16 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
         <v>4</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -3291,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
         <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z31" t="n">
         <v>4</v>
@@ -3306,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3361,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z32" t="n">
         <v>4</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
         <v>3</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22702</v>
+        <v>23813</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -3734,35 +3734,35 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -3770,21 +3770,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3814,84 +3814,84 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3902,26 +3902,26 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -3932,18 +3932,18 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -3954,35 +3954,35 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -3990,21 +3990,21 @@
         <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -4012,43 +4012,43 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4056,70 +4056,70 @@
         <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
@@ -4130,35 +4130,35 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -4166,43 +4166,43 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4218,13 +4218,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -4320,40 +4320,40 @@
         <v>18</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
@@ -4372,32 +4372,32 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -4405,51 +4405,51 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
@@ -4460,54 +4460,54 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D37" t="n">
+        <v>12</v>
+      </c>
+      <c r="E37" t="n">
         <v>8</v>
       </c>
-      <c r="E37" t="n">
-        <v>7</v>
-      </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -4515,67 +4515,111 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D40" t="n">
+        <v>12</v>
+      </c>
+      <c r="E40" t="n">
         <v>8</v>
       </c>
-      <c r="E40" t="n">
-        <v>7</v>
-      </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D43" t="n">
         <v>8</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E43" t="n">
         <v>7</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F43" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CASE_E_output_C.xlsx
+++ b/CASE_E_output_C.xlsx
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -655,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -922,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>4</v>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
         <v>3</v>
@@ -1071,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1332,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -1429,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1453,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2102,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>1</v>
@@ -2412,13 +2412,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2457,13 +2457,13 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="AB26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="n">
         <v>4</v>
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>3</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -3018,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3100,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3121,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23813</v>
+        <v>23136</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3734,13 +3734,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3778,13 +3778,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3792,43 +3792,43 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3836,21 +3836,21 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3858,18 +3858,18 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -3877,21 +3877,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3899,21 +3899,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -3924,21 +3924,21 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3965,24 +3965,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -3990,65 +3990,65 @@
         <v>10</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>10</v>
       </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4056,40 +4056,40 @@
         <v>11</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -4097,43 +4097,43 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -4141,24 +4141,24 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -4166,18 +4166,18 @@
         <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -4185,51 +4185,51 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
         <v>4</v>
@@ -4240,18 +4240,18 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -4262,32 +4262,32 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -4306,18 +4306,18 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -4328,40 +4328,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
@@ -4383,43 +4383,43 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
         <v>8</v>
       </c>
-      <c r="E33" t="n">
-        <v>7</v>
-      </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -4438,189 +4438,35 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F36" t="n">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>24</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>12</v>
-      </c>
-      <c r="E37" t="n">
-        <v>8</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>24</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>8</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>24</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>25</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>12</v>
-      </c>
-      <c r="E40" t="n">
-        <v>8</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>25</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>25</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>27</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>8</v>
-      </c>
-      <c r="E43" t="n">
-        <v>7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CASE_E_output_C.xlsx
+++ b/CASE_E_output_C.xlsx
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -655,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
         <v>4</v>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -922,10 +922,10 @@
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>4</v>
@@ -1025,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
         <v>3</v>
@@ -1071,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
         <v>3</v>
@@ -1159,10 +1159,10 @@
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1332,13 +1332,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -1429,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
         <v>4</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>4</v>
@@ -1756,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -1778,13 +1778,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="n">
         <v>1</v>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>1</v>
@@ -2102,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>3</v>
@@ -2697,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -2830,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC26" t="n">
         <v>4</v>
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U27" t="n">
         <v>3</v>
@@ -2958,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2967,16 +2967,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="W28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -3082,13 +3082,13 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23136</v>
+        <v>23322</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3726,43 +3726,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3770,18 +3770,18 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -3792,43 +3792,43 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3836,21 +3836,21 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3858,18 +3858,18 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -3877,21 +3877,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -3932,18 +3932,18 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -3965,43 +3965,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>10</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -4012,18 +4012,18 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4031,21 +4031,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -4064,18 +4064,18 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -4086,18 +4086,18 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -4108,18 +4108,18 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -4130,18 +4130,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -4163,21 +4163,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -4185,87 +4185,87 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
         <v>2</v>
@@ -4273,43 +4273,43 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -4317,156 +4317,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>24</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>24</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>25</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>25</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>25</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>26</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>7</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
